--- a/Heuristieken_F/A_star_V2/Book1.xlsx
+++ b/Heuristieken_F/A_star_V2/Book1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,35 +374,85 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cal_time</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>len_percentile</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>longest</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>netlist</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>q25</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>q75</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>shortest</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>starting order</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>total_connected</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>true_len</t>
         </is>
@@ -416,24 +466,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
         <v>57</v>
       </c>
-      <c r="D2" t="n">
+      <c r="L2" t="n">
         <v>24.69230769230769</v>
       </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
         <v>9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>37</v>
       </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>963</v>
       </c>
     </row>
@@ -445,24 +517,46 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
         <v>57</v>
       </c>
-      <c r="D3" t="n">
+      <c r="L3" t="n">
         <v>24.69230769230769</v>
       </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="O3" t="n">
         <v>37</v>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
         <v>963</v>
       </c>
     </row>
@@ -474,24 +568,46 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
         <v>57</v>
       </c>
-      <c r="D4" t="n">
+      <c r="L4" t="n">
         <v>24.69230769230769</v>
       </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
         <v>9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
         <v>37</v>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
         <v>963</v>
       </c>
     </row>
@@ -499,27 +615,361 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
         <v>57</v>
       </c>
-      <c r="D5" t="n">
+      <c r="L5" t="n">
         <v>24.69230769230769</v>
       </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
         <v>9</v>
       </c>
-      <c r="G5" t="n">
+      <c r="O5" t="n">
         <v>37</v>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
         <v>963</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>187.5633084774017</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.548986486486486</v>
+      </c>
+      <c r="K6" t="n">
+        <v>65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30.79591836734694</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>27</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[((2, 6, 0), (15, 12, 0)), ((1, 9, 0), (12, 2, 0)), ((16, 7, 0), (16, 5, 0)), ((12, 3, 0), (11, 8, 0)), ((6, 8, 0), (2, 12, 0)), ((16, 7, 0), (1, 9, 0)), ((3, 2, 0), (4, 12, 0)), ((2, 12, 0), (8, 15, 0)), ((3, 2, 0), (4, 5, 0)), ((12, 6, 0), (1, 1, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 6, 0), (11, 15, 0)), ((9, 13, 0), (10, 6, 0)), ((1, 3, 0), (12, 6, 0)), ((13, 7, 0), (13, 15, 0)), ((15, 1, 0), (10, 1, 0)), ((10, 1, 0), (4, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((11, 8, 0), (3, 2, 0)), ((13, 15, 0), (15, 1, 0)), ((15, 12, 0), (4, 5, 0)), ((14, 2, 0), (12, 6, 0)), ((15, 8, 0), (9, 10, 0)), ((11, 8, 0), (6, 9, 0)), ((2, 4, 0), (1, 9, 0)), ((13, 7, 0), (6, 8, 0)), ((15, 8, 0), (6, 14, 0)), ((1, 15, 0), (12, 2, 0)), ((16, 15, 0), (15, 6, 0)), ((15, 8, 0), (3, 2, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 7, 0), (3, 2, 0)), ((4, 14, 0), (6, 3, 0)), ((7, 8, 0), (9, 8, 0)), ((10, 5, 0), (15, 12, 0)), ((8, 4, 0), (8, 15, 0)), ((4, 5, 0), (8, 4, 0)), ((1, 5, 0), (16, 15, 0)), ((9, 8, 0), (6, 3, 0)), ((6, 14, 0), (9, 8, 0)), ((10, 5, 0), (6, 14, 0)), ((7, 6, 0), (2, 12, 0)), ((1, 1, 0), (8, 15, 0)), ((15, 1, 0), (4, 14, 0)), ((6, 1, 0), (8, 4, 0)), ((1, 9, 0), (15, 1, 0)), ((6, 9, 0), (15, 3, 0)), ((6, 1, 0), (13, 13, 0)), ((8, 4, 0), (1, 1, 0)), ((4, 5, 0), (2, 12, 0))]</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>348.2717452049255</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.476021314387211</v>
+      </c>
+      <c r="K7" t="n">
+        <v>71</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29.65957446808511</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[((15, 8, 0), (9, 10, 0)), ((7, 6, 0), (2, 12, 0)), ((1, 3, 0), (12, 6, 0)), ((13, 7, 0), (13, 15, 0)), ((15, 8, 0), (3, 2, 0)), ((6, 14, 0), (9, 8, 0)), ((6, 9, 0), (15, 3, 0)), ((14, 2, 0), (12, 6, 0)), ((2, 6, 0), (15, 12, 0)), ((13, 7, 0), (6, 8, 0)), ((1, 5, 0), (16, 15, 0)), ((1, 15, 0), (12, 2, 0)), ((8, 4, 0), (1, 1, 0)), ((6, 1, 0), (13, 13, 0)), ((6, 7, 0), (3, 2, 0)), ((7, 8, 0), (9, 8, 0)), ((9, 8, 0), (6, 3, 0)), ((1, 9, 0), (12, 2, 0)), ((6, 8, 0), (2, 12, 0)), ((15, 1, 0), (10, 1, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 1, 0), (4, 14, 0)), ((11, 8, 0), (6, 9, 0)), ((8, 4, 0), (8, 15, 0)), ((15, 8, 0), (6, 14, 0)), ((1, 1, 0), (8, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((10, 5, 0), (15, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((16, 7, 0), (1, 9, 0)), ((12, 6, 0), (1, 1, 0)), ((10, 5, 0), (6, 14, 0)), ((3, 2, 0), (4, 5, 0)), ((15, 12, 0), (4, 5, 0)), ((4, 5, 0), (2, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((15, 6, 0), (11, 15, 0)), ((3, 2, 0), (4, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((16, 15, 0), (15, 6, 0)), ((2, 4, 0), (1, 9, 0)), ((11, 8, 0), (3, 2, 0)), ((2, 12, 0), (8, 15, 0)), ((4, 14, 0), (6, 3, 0)), ((9, 13, 0), (10, 6, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 1, 0), (8, 4, 0))]</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>57.00421333312988</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K8" t="n">
+        <v>62</v>
+      </c>
+      <c r="L8" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[((15, 1, 0), (10, 1, 0)), ((4, 5, 0), (8, 4, 0)), ((15, 12, 0), (4, 5, 0)), ((3, 2, 0), (4, 5, 0)), ((7, 8, 0), (9, 8, 0)), ((12, 6, 0), (1, 1, 0)), ((4, 14, 0), (6, 3, 0)), ((14, 2, 0), (12, 6, 0)), ((2, 4, 0), (1, 9, 0)), ((13, 7, 0), (6, 8, 0)), ((8, 4, 0), (8, 15, 0)), ((11, 8, 0), (6, 9, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((4, 5, 0), (2, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((6, 9, 0), (15, 3, 0)), ((9, 8, 0), (6, 3, 0)), ((11, 5, 0), (7, 12, 0)), ((2, 6, 0), (15, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((7, 6, 0), (2, 12, 0)), ((3, 2, 0), (4, 12, 0)), ((15, 8, 0), (3, 2, 0)), ((16, 7, 0), (1, 9, 0)), ((14, 2, 0), (4, 5, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 15, 0), (12, 11, 0)), ((11, 8, 0), (3, 2, 0)), ((8, 4, 0), (1, 1, 0)), ((10, 5, 0), (15, 12, 0)), ((16, 7, 0), (16, 5, 0)), ((9, 13, 0), (10, 6, 0)), ((1, 9, 0), (15, 1, 0)), ((6, 1, 0), (8, 4, 0)), ((6, 1, 0), (13, 13, 0)), ((10, 1, 0), (4, 12, 0)), ((15, 1, 0), (4, 14, 0)), ((6, 8, 0), (2, 12, 0)), ((12, 3, 0), (11, 8, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 9, 0), (12, 2, 0)), ((2, 12, 0), (8, 15, 0)), ((1, 15, 0), (12, 2, 0)), ((1, 5, 0), (16, 15, 0)), ((15, 6, 0), (11, 15, 0)), ((10, 5, 0), (6, 14, 0)), ((15, 8, 0), (6, 14, 0)), ((13, 7, 0), (13, 15, 0)), ((15, 8, 0), (9, 10, 0))]</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>90.28723859786987</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.560070671378092</v>
+      </c>
+      <c r="K9" t="n">
+        <v>59</v>
+      </c>
+      <c r="L9" t="n">
+        <v>30.82978723404255</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>40</v>
+      </c>
+      <c r="O9" t="n">
+        <v>55</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>[((7, 6, 0), (2, 12, 0)), ((6, 15, 0), (12, 11, 0)), ((13, 7, 0), (13, 15, 0)), ((15, 8, 0), (9, 10, 0)), ((2, 12, 0), (8, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((15, 1, 0), (10, 1, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 1, 0), (13, 13, 0)), ((2, 6, 0), (15, 12, 0)), ((4, 5, 0), (2, 12, 0)), ((1, 5, 0), (16, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((9, 13, 0), (10, 6, 0)), ((3, 2, 0), (4, 5, 0)), ((15, 12, 0), (4, 5, 0)), ((6, 8, 0), (2, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((10, 1, 0), (4, 12, 0)), ((12, 6, 0), (1, 1, 0)), ((16, 7, 0), (16, 5, 0)), ((4, 14, 0), (6, 3, 0)), ((6, 14, 0), (9, 8, 0)), ((8, 4, 0), (8, 15, 0)), ((10, 5, 0), (15, 12, 0)), ((11, 8, 0), (6, 9, 0)), ((6, 7, 0), (3, 2, 0)), ((2, 4, 0), (1, 9, 0)), ((1, 1, 0), (8, 15, 0)), ((15, 8, 0), (3, 2, 0)), ((13, 15, 0), (15, 1, 0)), ((15, 8, 0), (6, 14, 0)), ((6, 1, 0), (8, 4, 0)), ((9, 8, 0), (6, 3, 0)), ((15, 6, 0), (11, 15, 0)), ((11, 8, 0), (3, 2, 0)), ((8, 4, 0), (1, 1, 0)), ((1, 9, 0), (12, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((13, 7, 0), (6, 8, 0)), ((3, 2, 0), (4, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((15, 1, 0), (4, 14, 0)), ((10, 5, 0), (6, 14, 0)), ((6, 9, 0), (15, 3, 0)), ((1, 9, 0), (15, 1, 0)), ((7, 8, 0), (9, 8, 0)), ((16, 7, 0), (1, 9, 0)), ((16, 15, 0), (15, 6, 0))]</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>93.62061715126038</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>69</v>
+      </c>
+      <c r="L10" t="n">
+        <v>29.89795918367347</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>56</v>
+      </c>
+      <c r="O10" t="n">
+        <v>41</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[((11, 8, 0), (6, 9, 0)), ((1, 9, 0), (12, 2, 0)), ((15, 8, 0), (6, 14, 0)), ((16, 7, 0), (1, 9, 0)), ((15, 8, 0), (3, 2, 0)), ((8, 4, 0), (1, 1, 0)), ((2, 6, 0), (15, 12, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 9, 0), (15, 1, 0)), ((11, 5, 0), (7, 12, 0)), ((1, 5, 0), (16, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((6, 1, 0), (13, 13, 0)), ((8, 4, 0), (8, 15, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((11, 8, 0), (3, 2, 0)), ((7, 8, 0), (9, 8, 0)), ((15, 1, 0), (4, 14, 0)), ((6, 8, 0), (2, 12, 0)), ((10, 5, 0), (6, 14, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 1, 0), (10, 1, 0)), ((2, 12, 0), (8, 15, 0)), ((13, 15, 0), (15, 1, 0)), ((4, 14, 0), (6, 3, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 1, 0), (8, 4, 0)), ((4, 5, 0), (2, 12, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 15, 0), (12, 11, 0)), ((16, 7, 0), (16, 5, 0)), ((7, 6, 0), (2, 12, 0)), ((12, 3, 0), (11, 8, 0)), ((12, 6, 0), (1, 1, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((15, 12, 0), (4, 5, 0)), ((9, 8, 0), (6, 3, 0)), ((3, 2, 0), (4, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((1, 3, 0), (12, 6, 0)), ((16, 15, 0), (15, 6, 0)), ((10, 1, 0), (4, 12, 0)), ((9, 13, 0), (10, 6, 0)), ((3, 2, 0), (4, 5, 0)), ((15, 8, 0), (9, 10, 0)), ((13, 7, 0), (13, 15, 0)), ((14, 2, 0), (12, 6, 0))]</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>44.63440990447998</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>65</v>
+      </c>
+      <c r="L11" t="n">
+        <v>30</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>33</v>
+      </c>
+      <c r="O11" t="n">
+        <v>39</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[((1, 5, 0), (16, 15, 0)), ((6, 1, 0), (13, 13, 0)), ((12, 6, 0), (1, 1, 0)), ((8, 4, 0), (1, 1, 0)), ((13, 15, 0), (15, 1, 0)), ((1, 3, 0), (12, 6, 0)), ((6, 8, 0), (2, 12, 0)), ((15, 8, 0), (9, 10, 0)), ((4, 14, 0), (6, 3, 0)), ((8, 4, 0), (8, 15, 0)), ((11, 8, 0), (6, 9, 0)), ((15, 1, 0), (10, 1, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((15, 12, 0), (4, 5, 0)), ((6, 14, 0), (9, 8, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((16, 7, 0), (16, 5, 0)), ((16, 15, 0), (15, 6, 0)), ((1, 9, 0), (15, 1, 0)), ((2, 12, 0), (8, 15, 0)), ((10, 1, 0), (4, 12, 0)), ((7, 6, 0), (2, 12, 0)), ((4, 5, 0), (2, 12, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 6, 0), (11, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((4, 5, 0), (8, 4, 0)), ((2, 6, 0), (15, 12, 0)), ((9, 8, 0), (6, 3, 0)), ((11, 5, 0), (7, 12, 0)), ((3, 2, 0), (4, 12, 0)), ((6, 15, 0), (12, 11, 0)), ((1, 9, 0), (12, 2, 0)), ((13, 7, 0), (13, 15, 0)), ((10, 5, 0), (6, 14, 0)), ((3, 2, 0), (4, 5, 0)), ((6, 7, 0), (3, 2, 0)), ((14, 2, 0), (12, 6, 0)), ((14, 2, 0), (4, 5, 0)), ((9, 13, 0), (10, 6, 0)), ((7, 8, 0), (9, 8, 0)), ((16, 7, 0), (1, 9, 0)), ((6, 1, 0), (8, 4, 0)), ((15, 8, 0), (6, 14, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 1, 0), (4, 14, 0))]</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
